--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView windowHeight="16940"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="DaftarLaluLintas_Input"/>
-    <sheet r:id="rId2" sheetId="2" name="DaftarLaluLintas_ubah"/>
+    <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
+    <sheet name="DaftarLaluLintas_ubah" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>Drpdownsearch</t>
   </si>
@@ -35,6 +35,21 @@
     <t>Deskripsi</t>
   </si>
   <si>
+    <t>ALYA BINTI GONGYOO</t>
+  </si>
+  <si>
+    <t>Cuti Bersyarat</t>
+  </si>
+  <si>
+    <t>17/05/2017'</t>
+  </si>
+  <si>
+    <t>20/05/2017'</t>
+  </si>
+  <si>
+    <t>sanihsan</t>
+  </si>
+  <si>
     <t>WILLLD BINTI eko cah cah ge</t>
   </si>
   <si>
@@ -50,47 +65,31 @@
     <t>Masih ada Perkara nih doi</t>
   </si>
   <si>
-    <t>ALYA BINTI GONGYOO</t>
-  </si>
-  <si>
     <t>Mutasi Keluar</t>
   </si>
   <si>
     <t>'01/05/2017</t>
   </si>
   <si>
-    <t>20/05/2017'</t>
-  </si>
-  <si>
     <t>Mutasi Keluar nih Doi</t>
-  </si>
-  <si>
-    <t>TEST BIN ayah</t>
-  </si>
-  <si>
-    <t>Cuti Bersyarat</t>
-  </si>
-  <si>
-    <t>17/05/2017'</t>
-  </si>
-  <si>
-    <t>JAJAN BAKSO</t>
-  </si>
-  <si>
-    <t>NAMA BIN Ayahku</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,10 +97,167 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,11 +266,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcefed5"/>
+        <fgColor rgb="FFCEFED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -124,52 +467,334 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -180,10 +805,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -221,71 +846,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -313,7 +938,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -336,11 +961,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -349,13 +974,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -365,7 +990,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -374,7 +999,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -383,7 +1008,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -391,10 +1016,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -454,30 +1079,250 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.0078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.859375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.4296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="21.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,131 +1342,48 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" ht="19.5" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="29.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="32.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="42.005" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16940"/>
+    <workbookView windowWidth="28000" windowHeight="13760"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Drpdownsearch</t>
   </si>
@@ -1087,10 +1087,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:6">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -1200,68 +1200,32 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9"/>
@@ -1294,6 +1258,302 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13760"/>
+    <workbookView windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,63 +114,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,67 +206,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,17 +477,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,22 +502,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,148 +536,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,7 +1083,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowHeight="16760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
     <sheet name="DaftarLaluLintas_ubah" sheetId="2" r:id="rId2"/>
+    <sheet name="DaftarLaluLintas_Index" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
-  <si>
-    <t>Drpdownsearch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>Nama</t>
   </si>
@@ -35,43 +33,61 @@
     <t>Deskripsi</t>
   </si>
   <si>
+    <t>PengawalInternal</t>
+  </si>
+  <si>
+    <t>PengawalExternal</t>
+  </si>
+  <si>
     <t>ALYA BINTI GONGYOO</t>
   </si>
   <si>
     <t>Cuti Bersyarat</t>
   </si>
   <si>
-    <t>17/05/2017'</t>
-  </si>
-  <si>
-    <t>20/05/2017'</t>
+    <t>17/12/2022'</t>
+  </si>
+  <si>
+    <t>29/11/2022 12:00:00'</t>
+  </si>
+  <si>
+    <t>Robi</t>
+  </si>
+  <si>
+    <t>rehan</t>
   </si>
   <si>
     <t>sanihsan</t>
   </si>
   <si>
+    <t>READ BARIS</t>
+  </si>
+  <si>
     <t>WILLLD BINTI eko cah cah ge</t>
   </si>
   <si>
     <t>MAP</t>
   </si>
   <si>
-    <t>'05/05/2017</t>
-  </si>
-  <si>
-    <t>24/05/2017'</t>
-  </si>
-  <si>
     <t>Masih ada Perkara nih doi</t>
   </si>
   <si>
     <t>Mutasi Keluar</t>
   </si>
   <si>
-    <t>'01/05/2017</t>
-  </si>
-  <si>
     <t>Mutasi Keluar nih Doi</t>
+  </si>
+  <si>
+    <t>filterColumn</t>
+  </si>
+  <si>
+    <t>nomorInduk</t>
+  </si>
+  <si>
+    <t>namaLengkap</t>
+  </si>
+  <si>
+    <t>EYONO BIN CAS</t>
   </si>
 </sst>
 </file>
@@ -80,8 +96,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -115,7 +131,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -130,6 +154,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -138,34 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -174,18 +206,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,14 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -212,7 +244,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -220,37 +258,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,19 +275,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCEFED5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +359,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +395,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,139 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +496,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,11 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,21 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -551,165 +579,159 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,19 +741,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,120 +1102,141 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.859375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.4296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.859375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1484375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.96875" customWidth="1"/>
+    <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="2:8">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="2:8">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="2:8">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1559,84 +1602,159 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.9765625" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="26.296875" customWidth="1"/>
+    <col min="4" max="4" width="16.015625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>50120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>50120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="2"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -1104,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1702,8 +1702,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowHeight="16760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
     <sheet name="DaftarLaluLintas_ubah" sheetId="2" r:id="rId2"/>
     <sheet name="DaftarLaluLintas_Index" sheetId="3" r:id="rId3"/>
+    <sheet name="DaftarLaluLintas_CariIdentitas" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+  <si>
+    <t>READ BARIS</t>
+  </si>
   <si>
     <t>Nama</t>
   </si>
@@ -42,52 +46,118 @@
     <t>ALYA BINTI GONGYOO</t>
   </si>
   <si>
+    <t>Cuti Menjelang Bebas</t>
+  </si>
+  <si>
+    <t>17/12/2022'</t>
+  </si>
+  <si>
+    <t>29/11/2022 12:00:00'</t>
+  </si>
+  <si>
+    <t>Robi</t>
+  </si>
+  <si>
+    <t>rehan</t>
+  </si>
+  <si>
+    <t>sanihsan</t>
+  </si>
+  <si>
     <t>Cuti Bersyarat</t>
   </si>
   <si>
-    <t>17/12/2022'</t>
-  </si>
-  <si>
-    <t>29/11/2022 12:00:00'</t>
-  </si>
-  <si>
-    <t>Robi</t>
-  </si>
-  <si>
-    <t>rehan</t>
-  </si>
-  <si>
-    <t>sanihsan</t>
-  </si>
-  <si>
-    <t>READ BARIS</t>
+    <t>Asimilasi</t>
+  </si>
+  <si>
+    <t>Bebas dari Dakwaan</t>
+  </si>
+  <si>
+    <t>Bebas dari Tuntutan</t>
+  </si>
+  <si>
+    <t>NamaEdit</t>
+  </si>
+  <si>
+    <t>noSK</t>
+  </si>
+  <si>
+    <t>JenisKeluarEdit</t>
+  </si>
+  <si>
+    <t>TanggalKeluarEdit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TanggalHarusKembaliEdit  </t>
+  </si>
+  <si>
+    <t>DeskripsiEdit</t>
+  </si>
+  <si>
+    <t>PengawalInternalEdit</t>
+  </si>
+  <si>
+    <t>PengawalExternalEdit</t>
+  </si>
+  <si>
+    <t>Wildan Cahyono</t>
+  </si>
+  <si>
+    <t>SK/001/DIV</t>
+  </si>
+  <si>
+    <t>EDIT</t>
+  </si>
+  <si>
+    <t>EYONO BIN CAS</t>
+  </si>
+  <si>
+    <t>SK/002/DIV</t>
+  </si>
+  <si>
+    <t>SK/003/DIV</t>
+  </si>
+  <si>
+    <t>SK/004/DIV</t>
+  </si>
+  <si>
+    <t>SK/005/DIV</t>
+  </si>
+  <si>
+    <t>SK/006/DIV</t>
+  </si>
+  <si>
+    <t>SK/007/DIV</t>
+  </si>
+  <si>
+    <t>SK/008/DIV</t>
+  </si>
+  <si>
+    <t>SK/009/DIV</t>
+  </si>
+  <si>
+    <t>filterColumn</t>
+  </si>
+  <si>
+    <t>nomorInduk</t>
+  </si>
+  <si>
+    <t>namaLengkap</t>
+  </si>
+  <si>
+    <t>nomorReg</t>
+  </si>
+  <si>
+    <t>jenisKejahatan</t>
   </si>
   <si>
     <t>WILLLD BINTI eko cah cah ge</t>
   </si>
   <si>
-    <t>MAP</t>
-  </si>
-  <si>
-    <t>Masih ada Perkara nih doi</t>
-  </si>
-  <si>
-    <t>Mutasi Keluar</t>
-  </si>
-  <si>
-    <t>Mutasi Keluar nih Doi</t>
-  </si>
-  <si>
-    <t>filterColumn</t>
-  </si>
-  <si>
-    <t>nomorInduk</t>
-  </si>
-  <si>
-    <t>namaLengkap</t>
-  </si>
-  <si>
-    <t>EYONO BIN CAS</t>
+    <t>Korupsi</t>
+  </si>
+  <si>
+    <t>nama</t>
   </si>
 </sst>
 </file>
@@ -95,15 +165,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -116,10 +193,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF606266"/>
-      <name val="Roboto"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -138,8 +218,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -155,29 +242,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,19 +271,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,7 +311,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,35 +340,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +361,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCEFED5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -293,25 +379,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +511,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,146 +557,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -482,16 +568,162 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +739,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,21 +772,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,169 +805,175 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,10 +982,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,15 +1362,15 @@
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.0078125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.859375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.859375" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.4296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.6875" style="2" customWidth="1"/>
@@ -1121,163 +1379,248 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="16">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="2:8">
-      <c r="B3" s="5" t="s">
+      <c r="H2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A3" s="17"/>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="15.6" spans="2:8">
-      <c r="B4" s="5" t="s">
+      <c r="H8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="14.75" spans="1:8">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="15.6" spans="2:8">
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="H10" s="25" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11"/>
@@ -1355,7 +1698,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20"/>
+      <c r="D20" s="21"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -1363,7 +1706,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21"/>
+      <c r="D21" s="21"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -1371,7 +1714,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22"/>
+      <c r="D22" s="21"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -1379,7 +1722,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23"/>
+      <c r="D23" s="21"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -1387,7 +1730,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24"/>
+      <c r="D24" s="21"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -1395,7 +1738,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25"/>
+      <c r="D25" s="21"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -1403,7 +1746,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26"/>
+      <c r="D26" s="21"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -1411,7 +1754,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27"/>
+      <c r="D27" s="21"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -1419,7 +1762,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28"/>
+      <c r="D28" s="21"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -1592,6 +1935,11 @@
       <c r="F49"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+      <formula1>"Asimilasi,Cuti Menjelang Bebas,Anak Kembali ke Orang Tua,Cuti Bersyarat,Asimilasi di Rumah,Bebas Biasa,Bebas dari Dakwaan,Bebas dari Tuntutan,Cuti Menjelang Bebas"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1602,13 +1950,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.1484375" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.1484375" style="2" customWidth="1"/>
@@ -1616,82 +1964,276 @@
     <col min="4" max="4" width="27.1484375" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.4296875" style="3" customWidth="1"/>
     <col min="6" max="6" width="42.0078125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.703125" customWidth="1"/>
+    <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A2" s="8">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="2:6">
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="F7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5">
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Asimilasi,Cuti Menjelang Bebas,Anak Kembali ke Orang Tua,Cuti Bersyarat,Asimilasi di Rumah,Bebas Biasa,Bebas dari Dakwaan,Bebas dari Tuntutan,Cuti Menjelang Bebas"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1703,7 +2245,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1716,16 +2258,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1733,10 +2275,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>50120</v>
@@ -1744,13 +2286,80 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>50120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.5390625" customWidth="1"/>
+    <col min="2" max="2" width="25.7734375" customWidth="1"/>
+    <col min="4" max="4" width="25.78125" customWidth="1"/>
+    <col min="5" max="5" width="17.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
-    <sheet name="DaftarLaluLintas_ubah" sheetId="2" r:id="rId2"/>
+    <sheet name="DaftarLaluLintas_Edit" sheetId="2" r:id="rId2"/>
     <sheet name="DaftarLaluLintas_Index" sheetId="3" r:id="rId3"/>
     <sheet name="DaftarLaluLintas_CariIdentitas" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Wildan Cahyono</t>
   </si>
   <si>
-    <t>SK/001/DIV</t>
+    <t>sk001</t>
   </si>
   <si>
     <t>EDIT</t>
@@ -1952,8 +1952,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2055,7 +2055,9 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2080,7 +2082,9 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -2105,7 +2109,9 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>34</v>
       </c>
@@ -2130,7 +2136,9 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
@@ -2155,7 +2163,9 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C8" s="10" t="s">
         <v>36</v>
       </c>
@@ -2180,7 +2190,9 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
@@ -2205,7 +2217,9 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="10" t="s">
         <v>38</v>
       </c>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="1"/>
+    <workbookView windowHeight="16760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
     <sheet name="DaftarLaluLintas_Edit" sheetId="2" r:id="rId2"/>
     <sheet name="DaftarLaluLintas_Index" sheetId="3" r:id="rId3"/>
     <sheet name="DaftarLaluLintas_CariIdentitas" sheetId="4" r:id="rId4"/>
+    <sheet name="Portir_SearchDataIndex" sheetId="5" r:id="rId5"/>
+    <sheet name="Portir_KeluarKeamanan" sheetId="6" r:id="rId6"/>
+    <sheet name="Portir_KeluarPortir" sheetId="7" r:id="rId7"/>
+    <sheet name="Portir_MasukPortir" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="68">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -158,6 +162,69 @@
   </si>
   <si>
     <t>nama</t>
+  </si>
+  <si>
+    <t>nama_lengkap</t>
+  </si>
+  <si>
+    <t>nomor_induk</t>
+  </si>
+  <si>
+    <t>NomorSurat</t>
+  </si>
+  <si>
+    <t>Pendaftar</t>
+  </si>
+  <si>
+    <t>semua</t>
+  </si>
+  <si>
+    <t>statusColumn</t>
+  </si>
+  <si>
+    <t>Nomor Surat Penetapan</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>NS1005</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Keluar Keamanan</t>
+  </si>
+  <si>
+    <t>nomor induk</t>
+  </si>
+  <si>
+    <t>NS1006</t>
+  </si>
+  <si>
+    <t>NS1007</t>
+  </si>
+  <si>
+    <t>Keluar Portir</t>
+  </si>
+  <si>
+    <t>NS1008</t>
+  </si>
+  <si>
+    <t>Masuk Portir</t>
+  </si>
+  <si>
+    <t>NS1009</t>
+  </si>
+  <si>
+    <t>NS1010</t>
+  </si>
+  <si>
+    <t>KeluarKeamanan</t>
+  </si>
+  <si>
+    <t>NamaWbp</t>
   </si>
 </sst>
 </file>
@@ -166,9 +233,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -202,14 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -226,48 +285,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +310,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,14 +339,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,21 +412,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -379,6 +446,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,7 +584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,145 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,14 +624,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -567,16 +634,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -603,126 +803,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -739,15 +819,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,193 +896,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,262 +1453,262 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="12" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="16">
+      <c r="A2" s="26">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="17"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="35" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1698,7 +1788,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="21"/>
+      <c r="D20" s="31"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -1706,7 +1796,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="21"/>
+      <c r="D21" s="31"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -1714,7 +1804,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="21"/>
+      <c r="D22" s="31"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -1722,7 +1812,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="21"/>
+      <c r="D23" s="31"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -1730,7 +1820,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="31"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -1738,7 +1828,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="31"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -1746,7 +1836,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="31"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -1754,7 +1844,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="31"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -1762,7 +1852,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="31"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -1952,293 +2042,293 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="12" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="8">
+      <c r="A2" s="18">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2380,4 +2470,315 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="25.2578125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5390625" customWidth="1"/>
+    <col min="7" max="7" width="25.78125" customWidth="1"/>
+    <col min="8" max="8" width="17.6953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50120</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50121</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50122</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>50123</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5">
+        <v>50124</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" ht="14.75" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>50125</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"Masuk Portir,Keluar Keamanan,Keluar Portir"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="1" activeTab="4"/>
+    <workbookView windowHeight="16760" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -12,16 +12,14 @@
     <sheet name="DaftarLaluLintas_Index" sheetId="3" r:id="rId3"/>
     <sheet name="DaftarLaluLintas_CariIdentitas" sheetId="4" r:id="rId4"/>
     <sheet name="Portir_SearchDataIndex" sheetId="5" r:id="rId5"/>
-    <sheet name="Portir_KeluarKeamanan" sheetId="6" r:id="rId6"/>
-    <sheet name="Portir_KeluarPortir" sheetId="7" r:id="rId7"/>
-    <sheet name="Portir_MasukPortir" sheetId="8" r:id="rId8"/>
+    <sheet name="Fungsi_P2U_Index" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -225,6 +223,57 @@
   </si>
   <si>
     <t>NamaWbp</t>
+  </si>
+  <si>
+    <t>xr</t>
+  </si>
+  <si>
+    <t>NamaWBP</t>
+  </si>
+  <si>
+    <t>NomorInduk</t>
+  </si>
+  <si>
+    <t>Keperluan</t>
+  </si>
+  <si>
+    <t>inputKategori</t>
+  </si>
+  <si>
+    <t>filterTanggalMasuk</t>
+  </si>
+  <si>
+    <t>filterTanggalKeluar</t>
+  </si>
+  <si>
+    <t>kategori</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Tamu Dinas</t>
+  </si>
+  <si>
+    <t>24/10/2022'</t>
+  </si>
+  <si>
+    <t>14/11/2022'</t>
+  </si>
+  <si>
+    <t>nama lenkap</t>
+  </si>
+  <si>
+    <t>Kunjungan Onsite</t>
+  </si>
+  <si>
+    <t>keperluan</t>
+  </si>
+  <si>
+    <t>Kunjungan Online</t>
   </si>
 </sst>
 </file>
@@ -233,17 +282,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -269,6 +324,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -277,8 +347,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +378,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -302,37 +403,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,16 +422,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,33 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +483,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,25 +507,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,31 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,37 +633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,79 +663,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +695,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -665,21 +741,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -819,6 +880,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,20 +934,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,212 +966,200 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1458,257 +1516,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="15" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="26">
+      <c r="A2" s="28">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1788,7 +1846,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="31"/>
+      <c r="D20" s="30"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -1796,7 +1854,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="31"/>
+      <c r="D21" s="30"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -1804,7 +1862,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="30"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -1812,7 +1870,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="30"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -1820,7 +1878,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="30"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -1828,7 +1886,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="31"/>
+      <c r="D25" s="30"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -1836,7 +1894,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="30"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -1844,7 +1902,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="31"/>
+      <c r="D27" s="30"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -1852,7 +1910,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="31"/>
+      <c r="D28" s="30"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2048,287 +2106,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="15" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="18">
+      <c r="A2" s="21">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2477,8 +2535,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2494,191 +2552,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>50120</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5">
-        <v>50121</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5">
-        <v>50122</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="5">
-        <v>50123</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5">
-        <v>50124</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>50125</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="14" t="s">
         <v>61</v>
       </c>
     </row>
+    <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2696,88 +2755,137 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.8046875" customWidth="1"/>
+    <col min="2" max="2" width="29.2890625" customWidth="1"/>
+    <col min="4" max="4" width="14.3203125" customWidth="1"/>
+    <col min="5" max="5" width="19.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.2265625" customWidth="1"/>
+    <col min="7" max="8" width="17.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3434</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="13.8046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Pegawai,Tamu Dinas,Kunjungan Onsite,Kunjungan Online"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"nomor induk,kategori,nama lengkap,keperluan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"nomor induk,nama lengkap,kategori,keperluan"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="3" activeTab="5"/>
+    <workbookView windowHeight="16760" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="DaftarLaluLintas_CariIdentitas" sheetId="4" r:id="rId4"/>
     <sheet name="Portir_SearchDataIndex" sheetId="5" r:id="rId5"/>
     <sheet name="Fungsi_P2U_Index" sheetId="8" r:id="rId6"/>
+    <sheet name="Fungsi_P2U_Input" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -274,6 +275,18 @@
   </si>
   <si>
     <t>Kunjungan Online</t>
+  </si>
+  <si>
+    <t>Pegawai</t>
+  </si>
+  <si>
+    <t>Nabila</t>
+  </si>
+  <si>
+    <t>Nama NIP</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2757,8 +2770,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2889,4 +2902,65 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="20.6953125" customWidth="1"/>
+    <col min="3" max="3" width="71.2265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="13940" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="Portir_SearchDataIndex" sheetId="5" r:id="rId5"/>
     <sheet name="Fungsi_P2U_Index" sheetId="8" r:id="rId6"/>
     <sheet name="Fungsi_P2U_Input" sheetId="9" r:id="rId7"/>
+    <sheet name="RegisterH_Index" sheetId="10" r:id="rId8"/>
+    <sheet name="RegisterH_CariIdentitas" sheetId="11" r:id="rId9"/>
+    <sheet name="RegisterH_Tambah" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="121">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -91,7 +94,7 @@
     <t>TanggalKeluarEdit</t>
   </si>
   <si>
-    <t xml:space="preserve">TanggalHarusKembaliEdit  </t>
+    <t>TanggalHarusKembaliEdit</t>
   </si>
   <si>
     <t>DeskripsiEdit</t>
@@ -187,7 +190,7 @@
     <t>j</t>
   </si>
   <si>
-    <t>NS1005</t>
+    <t>SK</t>
   </si>
   <si>
     <t>User</t>
@@ -199,27 +202,12 @@
     <t>nomor induk</t>
   </si>
   <si>
-    <t>NS1006</t>
-  </si>
-  <si>
-    <t>NS1007</t>
-  </si>
-  <si>
     <t>Keluar Portir</t>
   </si>
   <si>
-    <t>NS1008</t>
-  </si>
-  <si>
     <t>Masuk Portir</t>
   </si>
   <si>
-    <t>NS1009</t>
-  </si>
-  <si>
-    <t>NS1010</t>
-  </si>
-  <si>
     <t>KeluarKeamanan</t>
   </si>
   <si>
@@ -250,21 +238,24 @@
     <t>kategori</t>
   </si>
   <si>
+    <t>Rehan</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Tamu Dinas</t>
+  </si>
+  <si>
+    <t>24/10/2022'</t>
+  </si>
+  <si>
+    <t>14/11/2022'</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Tamu Dinas</t>
-  </si>
-  <si>
-    <t>24/10/2022'</t>
-  </si>
-  <si>
-    <t>14/11/2022'</t>
-  </si>
-  <si>
     <t>nama lenkap</t>
   </si>
   <si>
@@ -277,16 +268,124 @@
     <t>Kunjungan Online</t>
   </si>
   <si>
+    <t>NamaAtauNip</t>
+  </si>
+  <si>
+    <t>inputNip</t>
+  </si>
+  <si>
+    <t>inputNama</t>
+  </si>
+  <si>
+    <t>inputJabatan</t>
+  </si>
+  <si>
+    <t>InputInstansi</t>
+  </si>
+  <si>
+    <t>inputKeperluan</t>
+  </si>
+  <si>
+    <t>KunjunganOnsite</t>
+  </si>
+  <si>
+    <t>KunjunganOnline</t>
+  </si>
+  <si>
     <t>Pegawai</t>
   </si>
   <si>
     <t>Nabila</t>
   </si>
   <si>
-    <t>Nama NIP</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>Mengontrol wbp</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>CCCC</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>POLRES BANDUNG</t>
+  </si>
+  <si>
+    <t>Menemui Wbp Atas nama Ajis</t>
+  </si>
+  <si>
+    <t>Data yang dipilih</t>
+  </si>
+  <si>
+    <t>xr Baca Baris</t>
+  </si>
+  <si>
+    <t>noSurat</t>
+  </si>
+  <si>
+    <t>lamaPengasingan</t>
+  </si>
+  <si>
+    <t>tanggalMulai</t>
+  </si>
+  <si>
+    <t>tanggalKembali</t>
+  </si>
+  <si>
+    <t>jhoni</t>
+  </si>
+  <si>
+    <t>Srt</t>
+  </si>
+  <si>
+    <t>19/11/2022'</t>
+  </si>
+  <si>
+    <t>21/11/2022'</t>
+  </si>
+  <si>
+    <t>Baca baris</t>
+  </si>
+  <si>
+    <t>DAISY BINTI DAISYO</t>
+  </si>
+  <si>
+    <t>Narkotika</t>
+  </si>
+  <si>
+    <t>tanggalSurat</t>
+  </si>
+  <si>
+    <t>alasan</t>
+  </si>
+  <si>
+    <t>YONO BANCEUY BINTI eko cah cah ge</t>
+  </si>
+  <si>
+    <t>srt001/01</t>
+  </si>
+  <si>
+    <t>24/11/2022'</t>
+  </si>
+  <si>
+    <t>berantem</t>
+  </si>
+  <si>
+    <t>MITASUK BINTI -</t>
+  </si>
+  <si>
+    <t>srt001/02</t>
+  </si>
+  <si>
+    <t>ZIDAN BIN MORENA</t>
+  </si>
+  <si>
+    <t>srt001/03</t>
   </si>
 </sst>
 </file>
@@ -294,10 +393,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -337,16 +436,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,24 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,8 +474,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,16 +497,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,14 +551,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -452,25 +558,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,8 +571,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +589,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -508,12 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCEFED5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,43 +643,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,128 +809,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -718,6 +829,21 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -906,15 +1032,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -926,6 +1043,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,15 +1088,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -965,214 +1097,213 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1529,257 +1660,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="21" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="28">
+      <c r="A2" s="33">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1859,7 +1990,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="35"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -1867,7 +1998,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="35"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -1875,7 +2006,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="35"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -1883,7 +2014,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="35"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -1891,7 +2022,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="35"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -1899,7 +2030,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="35"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -1907,7 +2038,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="35"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -1915,7 +2046,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="35"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -1923,7 +2054,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="35"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2102,6 +2233,111 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="22.65625" customWidth="1"/>
+    <col min="4" max="4" width="17.9609375" customWidth="1"/>
+    <col min="5" max="5" width="24.8671875" customWidth="1"/>
+    <col min="6" max="6" width="16.40625" customWidth="1"/>
+    <col min="7" max="7" width="16.53125" customWidth="1"/>
+    <col min="8" max="8" width="12.2421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2114,292 +2350,292 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="21" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="21">
+      <c r="A2" s="26">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2432,7 +2668,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2494,7 +2730,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2548,8 +2784,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2565,192 +2801,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="12">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>50120</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>50120</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50120</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50120</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H5" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <v>50120</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="7" ht="14.75" spans="1:8">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4">
         <v>50120</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50120</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50120</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3">
-        <v>50120</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>61</v>
+      <c r="H7" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
-        <v>66</v>
+      <c r="A12" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>67</v>
+      <c r="B13" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2771,7 +3007,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2785,29 +3021,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
+      <c r="A1" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
@@ -2815,25 +3051,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3434</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3434</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -2843,48 +3079,48 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2907,56 +3143,396 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="13.5390625" customWidth="1"/>
     <col min="2" max="2" width="20.6953125" customWidth="1"/>
-    <col min="3" max="3" width="71.2265625" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.2265625" customWidth="1"/>
+    <col min="5" max="5" width="12.234375" customWidth="1"/>
+    <col min="6" max="6" width="10.6796875" customWidth="1"/>
+    <col min="7" max="7" width="18.2265625" customWidth="1"/>
+    <col min="8" max="8" width="24.2109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5390625" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3460</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5">
+        <v>123</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="16" ht="14.75"/>
+    <row r="17" ht="14.75" spans="1:2">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" ht="14.75" spans="1:2">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="7"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G14">
+      <formula1>"POLDA JABAR,POLRES BANDUNG,POLRES KEPULAUAN SERIBU,POLRES BANDARA SOE KARNO HATTA,POLDA JATENG,POLRESTABES SEMARANG,POLRES KUDUS,POLRES MAGELANG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 B6:B9 B10:B14">
+      <formula1>"Pegawai,Tamu Dinas,Kunjungan Onsite,Kunjungan Online"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="12.6171875" customWidth="1"/>
+    <col min="3" max="3" width="22.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.9296875" customWidth="1"/>
+    <col min="7" max="7" width="15.3671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.0625" customWidth="1"/>
+    <col min="3" max="3" width="21.6171875" customWidth="1"/>
+    <col min="4" max="4" width="18.359375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>84</v>
+      <c r="F2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13940" firstSheet="6" activeTab="9"/>
+    <workbookView windowHeight="17360" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,16 @@
     <sheet name="RegisterH_Index" sheetId="10" r:id="rId8"/>
     <sheet name="RegisterH_CariIdentitas" sheetId="11" r:id="rId9"/>
     <sheet name="RegisterH_Tambah" sheetId="12" r:id="rId10"/>
+    <sheet name="RegisterH_Verifikasi" sheetId="13" r:id="rId11"/>
+    <sheet name="RegisterH_PerpanjangPerasingan" sheetId="14" r:id="rId12"/>
+    <sheet name="RegisterH_Edit" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="132">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -386,6 +389,39 @@
   </si>
   <si>
     <t>srt001/03</t>
+  </si>
+  <si>
+    <t>filterStatus</t>
+  </si>
+  <si>
+    <t>UbahStatus</t>
+  </si>
+  <si>
+    <t>keterangan</t>
+  </si>
+  <si>
+    <t>dalamproses</t>
+  </si>
+  <si>
+    <t>diizinkan</t>
+  </si>
+  <si>
+    <t>Di Izinkan</t>
+  </si>
+  <si>
+    <t>perbaikan</t>
+  </si>
+  <si>
+    <t>srt001/01/EDT</t>
+  </si>
+  <si>
+    <t>berantem Edit</t>
+  </si>
+  <si>
+    <t>srt001/02EDT</t>
+  </si>
+  <si>
+    <t>srt001/03EDT</t>
   </si>
 </sst>
 </file>
@@ -2242,8 +2278,8 @@
   <sheetPr/>
   <dimension ref="C1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -2334,6 +2370,276 @@
       </c>
       <c r="H4" t="s">
         <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="16.7890625" customWidth="1"/>
+    <col min="4" max="4" width="16.1484375" customWidth="1"/>
+    <col min="5" max="5" width="21.609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="27.0859375" customWidth="1"/>
+    <col min="4" max="4" width="24.34375" customWidth="1"/>
+    <col min="6" max="6" width="18.359375" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="38.015625" customWidth="1"/>
+    <col min="4" max="4" width="29.9453125" customWidth="1"/>
+    <col min="8" max="8" width="56.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17360" firstSheet="8" activeTab="12"/>
+    <workbookView windowHeight="17360" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="RegisterH_Verifikasi" sheetId="13" r:id="rId11"/>
     <sheet name="RegisterH_PerpanjangPerasingan" sheetId="14" r:id="rId12"/>
     <sheet name="RegisterH_Edit" sheetId="15" r:id="rId13"/>
+    <sheet name="Laporan6A_Tambah" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="133">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -422,6 +423,9 @@
   </si>
   <si>
     <t>srt001/03EDT</t>
+  </si>
+  <si>
+    <t>noregis</t>
   </si>
 </sst>
 </file>
@@ -429,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -480,23 +484,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,8 +523,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -519,15 +540,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,32 +574,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +597,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -594,15 +605,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,7 +614,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +671,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,151 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,13 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,17 +1048,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,6 +1064,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,15 +1092,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1103,6 +1103,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,164 +1131,159 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2551,7 +2555,7 @@
   <sheetPr/>
   <dimension ref="C1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2640,6 +2644,50 @@
       </c>
       <c r="H4" t="s">
         <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="17.96875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17360" firstSheet="9" activeTab="13"/>
+    <workbookView windowHeight="16760" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="RegisterH_PerpanjangPerasingan" sheetId="14" r:id="rId12"/>
     <sheet name="RegisterH_Edit" sheetId="15" r:id="rId13"/>
     <sheet name="Laporan6A_Tambah" sheetId="16" r:id="rId14"/>
+    <sheet name="tambahBlokdanKamar" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="186">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -425,7 +426,166 @@
     <t>srt001/03EDT</t>
   </si>
   <si>
+    <t>namaNoregis</t>
+  </si>
+  <si>
+    <t>inputtahun</t>
+  </si>
+  <si>
+    <t>inputbulan</t>
+  </si>
+  <si>
+    <t>noSkAsimilasi</t>
+  </si>
+  <si>
+    <t>tanggalSkAsimilasi</t>
+  </si>
+  <si>
+    <t>tanggalAsimilasi</t>
+  </si>
+  <si>
+    <t>lokasiAsimilasi</t>
+  </si>
+  <si>
+    <t>namaPetugas</t>
+  </si>
+  <si>
+    <t>namaPenjamin</t>
+  </si>
+  <si>
+    <t>keterlibatanLain</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>SK001</t>
+  </si>
+  <si>
+    <t>12/12/2022'</t>
+  </si>
+  <si>
+    <t>Lapas Sukamiskin</t>
+  </si>
+  <si>
+    <t>Wildan Khaustara</t>
+  </si>
+  <si>
+    <t>Eko Cahyono</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>asimilasi di bandung</t>
+  </si>
+  <si>
     <t>noregis</t>
+  </si>
+  <si>
+    <t>Lapas Banceuy</t>
+  </si>
+  <si>
+    <t>Dewi</t>
+  </si>
+  <si>
+    <t>Galih</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>namablok</t>
+  </si>
+  <si>
+    <t>tipeblok</t>
+  </si>
+  <si>
+    <t>jeniskelamin</t>
+  </si>
+  <si>
+    <t>jumlahLantai</t>
+  </si>
+  <si>
+    <t>formatPenomoranKamar</t>
+  </si>
+  <si>
+    <t>kelUsia</t>
+  </si>
+  <si>
+    <t>jumlahKamarPerlantai</t>
+  </si>
+  <si>
+    <t>noKamarAwal</t>
+  </si>
+  <si>
+    <t>noKamarAkhir</t>
+  </si>
+  <si>
+    <t>Blok B</t>
+  </si>
+  <si>
+    <t>Umum</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Korupsi Teroris Kriminal</t>
+  </si>
+  <si>
+    <t>Angka 8 mulai kiri atas</t>
+  </si>
+  <si>
+    <t>Anak-anak</t>
+  </si>
+  <si>
+    <t>Blok C</t>
+  </si>
+  <si>
+    <t>Tutup Sunyi</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Kriminal</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 1 arah</t>
+  </si>
+  <si>
+    <t>Dewasa</t>
+  </si>
+  <si>
+    <t>Blok D</t>
+  </si>
+  <si>
+    <t>Isolasi</t>
+  </si>
+  <si>
+    <t>Teroris</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 2 arah</t>
+  </si>
+  <si>
+    <t>Lansia</t>
+  </si>
+  <si>
+    <t>Blok E</t>
+  </si>
+  <si>
+    <t>Mapenaling</t>
+  </si>
+  <si>
+    <t>Korupsi Teroris</t>
+  </si>
+  <si>
+    <t>Kanan Kiri 1 arah</t>
   </si>
 </sst>
 </file>
@@ -484,9 +644,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,6 +653,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -509,17 +676,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,30 +697,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,6 +711,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -583,32 +743,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,7 +831,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +861,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,157 +999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,17 +1204,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,21 +1222,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,6 +1251,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1127,6 +1276,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,133 +1308,133 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,7 +1443,7 @@
     <xf numFmtId="0" fontId="23" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,8 +1453,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1700,257 +1863,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="22" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2030,7 +2193,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="35"/>
+      <c r="D20" s="36"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2038,7 +2201,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="35"/>
+      <c r="D21" s="36"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2046,7 +2209,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2054,7 +2217,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="35"/>
+      <c r="D23" s="36"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2062,7 +2225,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="35"/>
+      <c r="D24" s="36"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2070,7 +2233,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2078,7 +2241,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2086,7 +2249,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2094,7 +2257,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="36"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2655,42 +2818,367 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="17.96875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="16.9296875" customWidth="1"/>
+    <col min="7" max="7" width="16.40625" customWidth="1"/>
+    <col min="8" max="8" width="17.1875" customWidth="1"/>
+    <col min="9" max="9" width="16.9296875" customWidth="1"/>
+    <col min="10" max="10" width="16.53125" customWidth="1"/>
+    <col min="11" max="11" width="12.7578125" customWidth="1"/>
+    <col min="12" max="12" width="15.359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>142</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>151</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="3" max="3" width="15.4921875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.9609375" customWidth="1"/>
+    <col min="8" max="8" width="37.890625" customWidth="1"/>
+    <col min="9" max="9" width="15.4921875" customWidth="1"/>
+    <col min="10" max="10" width="23.4375" customWidth="1"/>
+    <col min="11" max="11" width="13.9296875" customWidth="1"/>
+    <col min="12" max="12" width="14.9765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2709,287 +3197,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="22" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3022,7 +3510,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3084,7 +3572,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3155,192 +3643,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>50120</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>50120</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>50120</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>50120</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>50120</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="5">
         <v>50120</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3375,7 +3863,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -3410,7 +3898,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -3433,7 +3921,7 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -3450,7 +3938,7 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -3467,7 +3955,7 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -3518,248 +4006,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>3460</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>123</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3825,7 +4313,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="10" activeTab="13"/>
+    <workbookView windowHeight="16760" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="RegisterH_Edit" sheetId="15" r:id="rId13"/>
     <sheet name="Laporan6A_Tambah" sheetId="16" r:id="rId14"/>
     <sheet name="tambahBlokdanKamar" sheetId="17" r:id="rId15"/>
+    <sheet name="2Verifikasi" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="199">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -525,6 +526,21 @@
     <t>noKamarAkhir</t>
   </si>
   <si>
+    <t>nomorKamar</t>
+  </si>
+  <si>
+    <t>kelompokJenisKejahatan</t>
+  </si>
+  <si>
+    <t>kapasitasInput</t>
+  </si>
+  <si>
+    <t>kondisiRuangan</t>
+  </si>
+  <si>
+    <t>lamaHuni</t>
+  </si>
+  <si>
     <t>Blok B</t>
   </si>
   <si>
@@ -543,6 +559,12 @@
     <t>Anak-anak</t>
   </si>
   <si>
+    <t>B-01</t>
+  </si>
+  <si>
+    <t>Baik</t>
+  </si>
+  <si>
     <t>Blok C</t>
   </si>
   <si>
@@ -561,6 +583,12 @@
     <t>Dewasa</t>
   </si>
   <si>
+    <t>C-01</t>
+  </si>
+  <si>
+    <t>Rusak</t>
+  </si>
+  <si>
     <t>Blok D</t>
   </si>
   <si>
@@ -576,6 +604,9 @@
     <t>Lansia</t>
   </si>
   <si>
+    <t>D-02</t>
+  </si>
+  <si>
     <t>Blok E</t>
   </si>
   <si>
@@ -586,6 +617,15 @@
   </si>
   <si>
     <t>Kanan Kiri 1 arah</t>
+  </si>
+  <si>
+    <t>E-02</t>
+  </si>
+  <si>
+    <t>namaBlok</t>
+  </si>
+  <si>
+    <t>Diizinkan</t>
   </si>
 </sst>
 </file>
@@ -593,10 +633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -636,9 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,6 +685,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,10 +714,34 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,10 +753,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,9 +768,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,75 +813,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,13 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +883,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,7 +919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,43 +943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,25 +991,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,55 +1033,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1258,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1221,46 +1267,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,222 +1313,245 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1863,257 +1908,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="24" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2193,7 +2238,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2201,7 +2246,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2209,7 +2254,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2217,7 +2262,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2225,7 +2270,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="36"/>
+      <c r="D24" s="37"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2233,7 +2278,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2241,7 +2286,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="37"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2249,7 +2294,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2257,7 +2302,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="36"/>
+      <c r="D28" s="37"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -2820,7 +2865,7 @@
   <sheetPr/>
   <dimension ref="B1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2960,10 +3005,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -2978,9 +3023,13 @@
     <col min="10" max="10" width="23.4375" customWidth="1"/>
     <col min="11" max="11" width="13.9296875" customWidth="1"/>
     <col min="12" max="12" width="14.9765625" customWidth="1"/>
+    <col min="13" max="13" width="12.4921875" customWidth="1"/>
+    <col min="14" max="14" width="14.84375" customWidth="1"/>
+    <col min="15" max="15" width="16.40625" customWidth="1"/>
+    <col min="16" max="16" width="18.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -3014,31 +3063,46 @@
       <c r="L1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="1">
+        <v>172</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -3049,31 +3113,46 @@
       <c r="L2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="1">
+        <v>180</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -3084,31 +3163,46 @@
       <c r="L3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="1">
+        <v>180</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="J4">
         <v>14</v>
@@ -3119,31 +3213,46 @@
       <c r="L4">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="1">
+        <v>172</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J5">
         <v>12</v>
@@ -3154,29 +3263,88 @@
       <c r="L5">
         <v>12</v>
       </c>
+      <c r="M5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
+      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
-      <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
+      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3197,287 +3365,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="24" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3510,7 +3678,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3572,7 +3740,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3643,192 +3811,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13">
+      <c r="A2" s="15">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>50120</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>50120</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>50120</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>50120</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>50120</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="7">
         <v>50120</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3863,7 +4031,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -3898,7 +4066,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -3921,7 +4089,7 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -3938,7 +4106,7 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -3955,7 +4123,7 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -4006,248 +4174,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>3460</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>123</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4313,7 +4481,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="11" activeTab="15"/>
+    <workbookView windowHeight="17360" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="208">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -622,10 +622,37 @@
     <t>E-02</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
     <t>namaBlok</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>jumlahlantai</t>
+  </si>
+  <si>
+    <t>Ubahstatus</t>
+  </si>
+  <si>
+    <t>Dalam Proses</t>
+  </si>
+  <si>
+    <t>blok cc</t>
+  </si>
+  <si>
     <t>Diizinkan</t>
+  </si>
+  <si>
+    <t>blok</t>
+  </si>
+  <si>
+    <t>Perbaikan</t>
+  </si>
+  <si>
+    <t>Ditolak</t>
   </si>
 </sst>
 </file>
@@ -633,10 +660,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -676,6 +703,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -683,8 +734,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,78 +811,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,29 +825,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,19 +838,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -877,7 +898,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,43 +1024,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,121 +1066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,20 +1275,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1283,6 +1301,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1313,15 +1340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1337,195 +1355,197 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1537,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1546,7 +1566,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1908,257 +1928,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="23" customWidth="1"/>
     <col min="4" max="4" width="16.859375" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.4296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="23" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="35">
+      <c r="A2" s="34">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="15"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="15"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2238,7 +2258,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="36"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2246,7 +2266,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="36"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2254,7 +2274,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="36"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2262,7 +2282,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="37"/>
+      <c r="D23" s="36"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2270,7 +2290,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="36"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2278,7 +2298,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="36"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2286,7 +2306,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="36"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2294,7 +2314,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="36"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2302,7 +2322,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="36"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3142,7 +3162,7 @@
       <c r="E3" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="G3" s="2">
@@ -3192,7 +3212,7 @@
       <c r="E4" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G4" s="2">
@@ -3242,7 +3262,7 @@
       <c r="E5" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G5" s="2">
@@ -3281,6 +3301,9 @@
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
@@ -3293,20 +3316,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3317,33 +3337,110 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.015625" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" t="s">
         <v>170</v>
       </c>
-      <c r="C2" t="s">
-        <v>198</v>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+      <formula1>"status,blok,jumlahlantai,semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 C4:C7 D2:D6 G2:G5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3365,287 +3462,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="23" customWidth="1"/>
     <col min="4" max="4" width="27.1484375" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.4296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="23" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3678,7 +3775,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3740,7 +3837,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3811,192 +3908,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>50120</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>50120</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>50120</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>50120</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="15"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>50120</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="6">
         <v>50120</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4031,7 +4128,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -4066,7 +4163,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -4089,7 +4186,7 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -4106,7 +4203,7 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -4123,7 +4220,7 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -4174,248 +4271,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>3460</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>123</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4481,7 +4578,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17360" firstSheet="11" activeTab="15"/>
+    <workbookView windowHeight="16760" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -607,7 +607,7 @@
     <t>D-02</t>
   </si>
   <si>
-    <t>Blok E</t>
+    <t>Blok mapenaling E</t>
   </si>
   <si>
     <t>Mapenaling</t>
@@ -660,10 +660,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -711,17 +711,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,6 +736,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,18 +786,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -764,8 +808,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,37 +826,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,26 +839,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -898,31 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,49 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,13 +934,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,7 +976,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +988,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,19 +1036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,6 +1271,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,6 +1310,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,208 +1368,149 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3027,8 +3027,8 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -3301,17 +3301,14 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
@@ -3319,14 +3316,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3339,7 +3339,7 @@
   <sheetPr/>
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="11" activeTab="14"/>
+    <workbookView windowWidth="28800" windowHeight="13760" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="Laporan6A_Tambah" sheetId="16" r:id="rId14"/>
     <sheet name="tambahBlokdanKamar" sheetId="17" r:id="rId15"/>
     <sheet name="2Verifikasi" sheetId="18" r:id="rId16"/>
+    <sheet name="editBlokdanKamar" sheetId="19" r:id="rId17"/>
+    <sheet name="TambahManajemenPenghuniBaru" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="232">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -541,118 +543,190 @@
     <t>lamaHuni</t>
   </si>
   <si>
+    <t>Blok BE</t>
+  </si>
+  <si>
+    <t>Mapenaling</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Angka 8 mulai kiri atas</t>
+  </si>
+  <si>
+    <t>Anak-anak</t>
+  </si>
+  <si>
+    <t>B-01</t>
+  </si>
+  <si>
+    <t>Baik</t>
+  </si>
+  <si>
+    <t>Blok C</t>
+  </si>
+  <si>
+    <t>Tutup Sunyi</t>
+  </si>
+  <si>
+    <t>Kriminal</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 1 arah</t>
+  </si>
+  <si>
+    <t>Dewasa</t>
+  </si>
+  <si>
+    <t>C-01</t>
+  </si>
+  <si>
+    <t>Rusak</t>
+  </si>
+  <si>
+    <t>Blok D</t>
+  </si>
+  <si>
+    <t>Isolasi</t>
+  </si>
+  <si>
+    <t>Teroris</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 2 arah</t>
+  </si>
+  <si>
+    <t>Lansia</t>
+  </si>
+  <si>
+    <t>D-02</t>
+  </si>
+  <si>
+    <t>Blok mapenaling E</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Korupsi Teroris</t>
+  </si>
+  <si>
+    <t>Kanan Kiri 1 arah</t>
+  </si>
+  <si>
+    <t>E-02</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>namaBlok</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>jumlahlantai</t>
+  </si>
+  <si>
+    <t>Ubahstatus</t>
+  </si>
+  <si>
     <t>Blok B</t>
   </si>
   <si>
+    <t>Dalam Proses</t>
+  </si>
+  <si>
+    <t>blok cc</t>
+  </si>
+  <si>
+    <t>Diizinkan</t>
+  </si>
+  <si>
+    <t>Di izinkan karena memenuhi syarat</t>
+  </si>
+  <si>
+    <t>blok</t>
+  </si>
+  <si>
+    <t>Perbaikan</t>
+  </si>
+  <si>
     <t>Umum</t>
   </si>
   <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Korupsi Teroris Kriminal</t>
-  </si>
-  <si>
-    <t>Angka 8 mulai kiri atas</t>
-  </si>
-  <si>
-    <t>Anak-anak</t>
-  </si>
-  <si>
-    <t>B-01</t>
-  </si>
-  <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>Blok C</t>
-  </si>
-  <si>
-    <t>Tutup Sunyi</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Kriminal</t>
-  </si>
-  <si>
-    <t>Depan Ke Belakang 1 arah</t>
-  </si>
-  <si>
-    <t>Dewasa</t>
-  </si>
-  <si>
-    <t>C-01</t>
-  </si>
-  <si>
-    <t>Rusak</t>
-  </si>
-  <si>
-    <t>Blok D</t>
-  </si>
-  <si>
-    <t>Isolasi</t>
-  </si>
-  <si>
-    <t>Teroris</t>
-  </si>
-  <si>
-    <t>Depan Ke Belakang 2 arah</t>
-  </si>
-  <si>
-    <t>Lansia</t>
-  </si>
-  <si>
-    <t>D-02</t>
-  </si>
-  <si>
-    <t>Blok mapenaling E</t>
-  </si>
-  <si>
-    <t>Mapenaling</t>
-  </si>
-  <si>
-    <t>Korupsi Teroris</t>
-  </si>
-  <si>
-    <t>Kanan Kiri 1 arah</t>
-  </si>
-  <si>
-    <t>E-02</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>namaBlok</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>jumlahlantai</t>
-  </si>
-  <si>
-    <t>Ubahstatus</t>
-  </si>
-  <si>
-    <t>Dalam Proses</t>
-  </si>
-  <si>
-    <t>blok cc</t>
-  </si>
-  <si>
-    <t>Diizinkan</t>
-  </si>
-  <si>
-    <t>blok</t>
-  </si>
-  <si>
-    <t>Perbaikan</t>
-  </si>
-  <si>
-    <t>Ditolak</t>
+    <t>MAPENALING</t>
+  </si>
+  <si>
+    <t>nama blok</t>
+  </si>
+  <si>
+    <t>NoRegis</t>
+  </si>
+  <si>
+    <t>Semua</t>
+  </si>
+  <si>
+    <t>Kejahatan</t>
+  </si>
+  <si>
+    <t>blokform</t>
+  </si>
+  <si>
+    <t>Lantai</t>
+  </si>
+  <si>
+    <t>Kamar</t>
+  </si>
+  <si>
+    <t>TanggalPenempatan</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>kejahatan</t>
+  </si>
+  <si>
+    <t>lantai 1</t>
+  </si>
+  <si>
+    <t>kamar 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapenaling </t>
+  </si>
+  <si>
+    <t>No Registrasi</t>
+  </si>
+  <si>
+    <t>Thamus SAMUEL BIN Argus</t>
+  </si>
+  <si>
+    <t>Blok mapenaling gal</t>
+  </si>
+  <si>
+    <t>kamar 2</t>
+  </si>
+  <si>
+    <t>17/12/2023'</t>
+  </si>
+  <si>
+    <t>Argus SAMUEL BIN Alucard</t>
+  </si>
+  <si>
+    <t>kamar 3</t>
+  </si>
+  <si>
+    <t>17/12/2024'</t>
+  </si>
+  <si>
+    <t>kamar 4</t>
+  </si>
+  <si>
+    <t>17/12/2025'</t>
   </si>
 </sst>
 </file>
@@ -662,8 +736,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -672,6 +746,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -685,13 +766,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -711,15 +785,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -728,21 +810,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,26 +831,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,13 +844,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,15 +864,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,9 +913,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,6 +927,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEFED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -892,7 +972,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCEFED5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,13 +1014,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,37 +1116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,85 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,19 +1146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,21 +1170,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1191,19 +1250,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1249,6 +1295,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1275,6 +1349,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1286,15 +1408,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,6 +1429,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1324,193 +1446,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1522,56 +1596,56 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1923,262 +1997,262 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="27" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="34">
+      <c r="A2" s="35">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="14"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2258,7 +2332,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2266,7 +2340,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2274,7 +2348,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2282,7 +2356,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2290,7 +2364,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="36"/>
+      <c r="D24" s="37"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2298,7 +2372,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2306,7 +2380,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="36"/>
+      <c r="D26" s="37"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2314,7 +2388,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2322,7 +2396,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="36"/>
+      <c r="D28" s="37"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3027,8 +3101,8 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -3112,17 +3186,17 @@
       <c r="E2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>174</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -3134,16 +3208,16 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="O2">
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>30</v>
@@ -3154,25 +3228,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
         <v>178</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" t="s">
         <v>181</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" t="s">
-        <v>183</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -3184,16 +3258,16 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="O3">
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>14</v>
@@ -3204,25 +3278,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>187</v>
       </c>
-      <c r="E4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" t="s">
         <v>188</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" t="s">
-        <v>190</v>
       </c>
       <c r="J4">
         <v>14</v>
@@ -3234,16 +3308,16 @@
         <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>191</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="O4">
         <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>23</v>
@@ -3254,25 +3328,25 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
         <v>193</v>
       </c>
-      <c r="E5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>195</v>
-      </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5">
         <v>12</v>
@@ -3284,16 +3358,16 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="O5">
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>20</v>
@@ -3301,14 +3375,14 @@
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
@@ -3316,14 +3390,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
@@ -3337,111 +3411,639 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="13.015625" customWidth="1"/>
+    <col min="3" max="3" width="26.8203125" customWidth="1"/>
     <col min="4" max="4" width="17.578125" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.6015625" customWidth="1"/>
+    <col min="9" max="9" width="28.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>197</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" ht="14.75" spans="2:9">
+      <c r="B5" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"status,blok,jumlahlantai,semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
+      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" t="s">
-        <v>199</v>
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="14.4453125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>190</v>
+      </c>
+      <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>224</v>
+      </c>
+      <c r="H3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>190</v>
+      </c>
+      <c r="H4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>204</v>
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
-      <formula1>"status,blok,jumlahlantai,semua"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 C4:C7 D2:D6 G2:G5">
-      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7">
+      <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3462,287 +4064,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="27" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="27">
+      <c r="A2" s="31">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3775,7 +4377,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3837,7 +4439,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3908,192 +4510,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>50120</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>50120</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>50120</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>50120</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>50120</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7">
         <v>50120</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>14</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4128,7 +4730,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -4163,7 +4765,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="20">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -4186,7 +4788,7 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -4203,7 +4805,7 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -4220,7 +4822,7 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -4271,248 +4873,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4">
+      <c r="A2" s="14">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="16">
         <v>3460</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="16">
         <v>123</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4578,7 +5180,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="13" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13760" firstSheet="15" activeTab="17"/>
+    <workbookView windowWidth="28800" windowHeight="13940" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,18 @@
     <sheet name="RegisterH_Edit" sheetId="15" r:id="rId13"/>
     <sheet name="Laporan6A_Tambah" sheetId="16" r:id="rId14"/>
     <sheet name="tambahBlokdanKamar" sheetId="17" r:id="rId15"/>
-    <sheet name="2Verifikasi" sheetId="18" r:id="rId16"/>
+    <sheet name="VerifikasiManajemenBlok" sheetId="18" r:id="rId16"/>
     <sheet name="editBlokdanKamar" sheetId="19" r:id="rId17"/>
     <sheet name="TambahManajemenPenghuniBaru" sheetId="20" r:id="rId18"/>
+    <sheet name="VerifikasiPenghuniBaru" sheetId="21" r:id="rId19"/>
+    <sheet name="EditManajemenPenghuniBaru" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="249">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -727,6 +729,57 @@
   </si>
   <si>
     <t>17/12/2025'</t>
+  </si>
+  <si>
+    <t>namaWbp</t>
+  </si>
+  <si>
+    <t>noRegis</t>
+  </si>
+  <si>
+    <t>kamar</t>
+  </si>
+  <si>
+    <t>statusVerifikasi</t>
+  </si>
+  <si>
+    <t>BlokMapenaling</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Blok Mapenaling E</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Blok</t>
+  </si>
+  <si>
+    <t>NoRegisEdit</t>
+  </si>
+  <si>
+    <t>SemuaEdit</t>
+  </si>
+  <si>
+    <t>KejahatanEdit</t>
+  </si>
+  <si>
+    <t>blokformEdit</t>
+  </si>
+  <si>
+    <t>LantaiEdit</t>
+  </si>
+  <si>
+    <t>KamarEdit</t>
+  </si>
+  <si>
+    <t>TanggalPenempatanEdit</t>
+  </si>
+  <si>
+    <t>KeteranganEdit</t>
   </si>
 </sst>
 </file>
@@ -736,8 +789,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -779,22 +832,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,14 +843,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,14 +861,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -849,14 +871,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,8 +891,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,7 +908,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,8 +958,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,13 +968,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,6 +984,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCEFED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,13 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,31 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1073,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,25 +1145,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,73 +1187,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1234,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1191,6 +1250,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1221,21 +1295,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1349,36 +1408,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1429,15 +1458,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1446,188 +1466,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1637,15 +1699,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2002,50 +2064,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="30" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="35">
+      <c r="A2" s="38">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2054,22 +2116,22 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2078,22 +2140,22 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2102,22 +2164,22 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2126,22 +2188,22 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2150,22 +2212,22 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2174,22 +2236,22 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2198,22 +2260,22 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2222,37 +2284,37 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2332,7 +2394,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="40"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2340,7 +2402,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="40"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2348,7 +2410,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="40"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2356,7 +2418,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="37"/>
+      <c r="D23" s="40"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2364,7 +2426,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="40"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2372,7 +2434,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="40"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2380,7 +2442,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="40"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2388,7 +2450,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="40"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2396,7 +2458,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="40"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3186,10 +3248,10 @@
       <c r="E2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -3210,7 +3272,7 @@
       <c r="M2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="O2">
@@ -3236,10 +3298,10 @@
       <c r="E3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="10">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -3260,7 +3322,7 @@
       <c r="M3" t="s">
         <v>182</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>179</v>
       </c>
       <c r="O3">
@@ -3286,10 +3348,10 @@
       <c r="E4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="10">
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -3310,7 +3372,7 @@
       <c r="M4" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="9" t="s">
         <v>186</v>
       </c>
       <c r="O4">
@@ -3336,10 +3398,10 @@
       <c r="E5" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="10">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -3360,7 +3422,7 @@
       <c r="M5" t="s">
         <v>194</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="9" t="s">
         <v>186</v>
       </c>
       <c r="O5">
@@ -3377,6 +3439,9 @@
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
       <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
@@ -3387,17 +3452,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
@@ -3414,7 +3476,7 @@
   <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -3428,136 +3490,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="15" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="15" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="15" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="16" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
@@ -3645,10 +3707,10 @@
       <c r="E2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -3669,7 +3731,7 @@
       <c r="M2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="O2">
@@ -3695,10 +3757,10 @@
       <c r="E3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="10">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -3719,7 +3781,7 @@
       <c r="M3" t="s">
         <v>182</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>179</v>
       </c>
       <c r="O3">
@@ -3745,10 +3807,10 @@
       <c r="E4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="10">
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -3769,7 +3831,7 @@
       <c r="M4" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="9" t="s">
         <v>186</v>
       </c>
       <c r="O4">
@@ -3795,10 +3857,10 @@
       <c r="E5" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="10">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -3819,7 +3881,7 @@
       <c r="M5" t="s">
         <v>194</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="9" t="s">
         <v>186</v>
       </c>
       <c r="O5">
@@ -3836,6 +3898,9 @@
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
       <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
@@ -3843,17 +3908,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
@@ -3869,8 +3931,8 @@
   <sheetPr/>
   <dimension ref="B1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -4044,6 +4106,174 @@
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7">
       <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="13.015625" customWidth="1"/>
+    <col min="3" max="3" width="26.8203125" customWidth="1"/>
+    <col min="4" max="4" width="12.2421875" customWidth="1"/>
+    <col min="7" max="7" width="15.234375" customWidth="1"/>
+    <col min="8" max="9" width="19.0078125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" ht="14.75" spans="2:9">
+      <c r="B5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"status,blok,jumlahlantai,semua"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4064,56 +4294,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="30" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="31">
+      <c r="A2" s="34">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4122,25 +4352,25 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4149,25 +4379,25 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4176,25 +4406,25 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4203,25 +4433,25 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4230,25 +4460,25 @@
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4257,25 +4487,25 @@
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4284,25 +4514,25 @@
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4311,25 +4541,25 @@
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4338,13 +4568,13 @@
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4355,6 +4585,197 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="19.7890625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.0625" customWidth="1"/>
+    <col min="6" max="6" width="19.2734375" customWidth="1"/>
+    <col min="7" max="7" width="17.4375" customWidth="1"/>
+    <col min="10" max="10" width="20.828125" customWidth="1"/>
+    <col min="11" max="11" width="14.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+      <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4377,7 +4798,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4439,7 +4860,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4510,192 +4931,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="29" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="12">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>50120</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>50120</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>50120</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>50120</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>50120</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4">
         <v>50120</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4730,7 +5151,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -4765,7 +5186,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="23">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -4788,7 +5209,7 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -4805,7 +5226,7 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -4822,7 +5243,7 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -4834,11 +5255,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"nomor induk,kategori,nama lengkap,keperluan"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Pegawai,Tamu Dinas,Kunjungan Onsite,Kunjungan Online"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"nomor induk,kategori,nama lengkap,keperluan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"nomor induk,nama lengkap,kategori,keperluan"</formula1>
@@ -4873,248 +5294,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="14">
+      <c r="A2" s="18">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="16" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="16" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="19">
         <v>3460</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="19">
         <v>123</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5180,7 +5601,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="17" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13940" firstSheet="17" activeTab="19"/>
+    <workbookView windowHeight="16760" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="250">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -545,126 +545,129 @@
     <t>lamaHuni</t>
   </si>
   <si>
+    <t>Blok mapen new</t>
+  </si>
+  <si>
+    <t>Mapenaling</t>
+  </si>
+  <si>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Angka 8 mulai kiri atas</t>
+  </si>
+  <si>
+    <t>Anak-anak</t>
+  </si>
+  <si>
+    <t>B-01</t>
+  </si>
+  <si>
+    <t>Baik</t>
+  </si>
+  <si>
+    <t>Blok C</t>
+  </si>
+  <si>
+    <t>Tutup Sunyi</t>
+  </si>
+  <si>
+    <t>Kriminal</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 1 arah</t>
+  </si>
+  <si>
+    <t>Dewasa</t>
+  </si>
+  <si>
+    <t>C-01</t>
+  </si>
+  <si>
+    <t>Rusak</t>
+  </si>
+  <si>
+    <t>Blok D</t>
+  </si>
+  <si>
+    <t>Isolasi</t>
+  </si>
+  <si>
+    <t>Teroris</t>
+  </si>
+  <si>
+    <t>Depan Ke Belakang 2 arah</t>
+  </si>
+  <si>
+    <t>Lansia</t>
+  </si>
+  <si>
+    <t>D-02</t>
+  </si>
+  <si>
+    <t>Blok mapenaling E</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Korupsi Teroris</t>
+  </si>
+  <si>
+    <t>Kanan Kiri 1 arah</t>
+  </si>
+  <si>
+    <t>E-02</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>namaBlok</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>jumlahlantai</t>
+  </si>
+  <si>
+    <t>Ubahstatus</t>
+  </si>
+  <si>
+    <t>Blok B</t>
+  </si>
+  <si>
+    <t>Dalam Proses</t>
+  </si>
+  <si>
+    <t>blok cc</t>
+  </si>
+  <si>
+    <t>Diizinkan</t>
+  </si>
+  <si>
+    <t>Di izinkan karena memenuhi syarat</t>
+  </si>
+  <si>
+    <t>blok</t>
+  </si>
+  <si>
+    <t>Perbaikan</t>
+  </si>
+  <si>
+    <t>Umum</t>
+  </si>
+  <si>
+    <t>MAPENALING</t>
+  </si>
+  <si>
+    <t>nama blok</t>
+  </si>
+  <si>
     <t>Blok BE</t>
   </si>
   <si>
-    <t>Mapenaling</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>Angka 8 mulai kiri atas</t>
-  </si>
-  <si>
-    <t>Anak-anak</t>
-  </si>
-  <si>
-    <t>B-01</t>
-  </si>
-  <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>Blok C</t>
-  </si>
-  <si>
-    <t>Tutup Sunyi</t>
-  </si>
-  <si>
-    <t>Kriminal</t>
-  </si>
-  <si>
-    <t>Depan Ke Belakang 1 arah</t>
-  </si>
-  <si>
-    <t>Dewasa</t>
-  </si>
-  <si>
-    <t>C-01</t>
-  </si>
-  <si>
-    <t>Rusak</t>
-  </si>
-  <si>
-    <t>Blok D</t>
-  </si>
-  <si>
-    <t>Isolasi</t>
-  </si>
-  <si>
-    <t>Teroris</t>
-  </si>
-  <si>
-    <t>Depan Ke Belakang 2 arah</t>
-  </si>
-  <si>
-    <t>Lansia</t>
-  </si>
-  <si>
-    <t>D-02</t>
-  </si>
-  <si>
-    <t>Blok mapenaling E</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Korupsi Teroris</t>
-  </si>
-  <si>
-    <t>Kanan Kiri 1 arah</t>
-  </si>
-  <si>
-    <t>E-02</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>namaBlok</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>jumlahlantai</t>
-  </si>
-  <si>
-    <t>Ubahstatus</t>
-  </si>
-  <si>
-    <t>Blok B</t>
-  </si>
-  <si>
-    <t>Dalam Proses</t>
-  </si>
-  <si>
-    <t>blok cc</t>
-  </si>
-  <si>
-    <t>Diizinkan</t>
-  </si>
-  <si>
-    <t>Di izinkan karena memenuhi syarat</t>
-  </si>
-  <si>
-    <t>blok</t>
-  </si>
-  <si>
-    <t>Perbaikan</t>
-  </si>
-  <si>
-    <t>Umum</t>
-  </si>
-  <si>
-    <t>MAPENALING</t>
-  </si>
-  <si>
-    <t>nama blok</t>
-  </si>
-  <si>
     <t>NoRegis</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
     <t>Blok Mapenaling E</t>
   </si>
   <si>
+    <t>test keterangan</t>
+  </si>
+  <si>
     <t>Naga</t>
   </si>
   <si>
@@ -762,9 +768,6 @@
   </si>
   <si>
     <t>SemuaEdit</t>
-  </si>
-  <si>
-    <t>KejahatanEdit</t>
   </si>
   <si>
     <t>blokformEdit</t>
@@ -788,9 +791,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -832,7 +835,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,25 +873,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,23 +894,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -908,14 +903,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,15 +925,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,34 +954,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCEFED5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -995,7 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCEFED5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,13 +1064,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,31 +1160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,31 +1178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,61 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,6 +1237,21 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1250,21 +1262,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1408,20 +1405,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,6 +1431,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1458,26 +1467,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,223 +1483,225 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2064,257 +2058,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="27" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="38">
+      <c r="A2" s="35">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2394,7 +2388,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="40"/>
+      <c r="D20" s="37"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2402,7 +2396,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="40"/>
+      <c r="D21" s="37"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2410,7 +2404,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="40"/>
+      <c r="D22" s="37"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2418,7 +2412,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="40"/>
+      <c r="D23" s="37"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2426,7 +2420,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="40"/>
+      <c r="D24" s="37"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2434,7 +2428,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="40"/>
+      <c r="D25" s="37"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2442,7 +2436,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="40"/>
+      <c r="D26" s="37"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2450,7 +2444,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="40"/>
+      <c r="D27" s="37"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2458,7 +2452,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="40"/>
+      <c r="D28" s="37"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3163,8 +3157,8 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -3248,10 +3242,10 @@
       <c r="E2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -3272,7 +3266,7 @@
       <c r="M2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O2">
@@ -3298,10 +3292,10 @@
       <c r="E3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -3322,7 +3316,7 @@
       <c r="M3" t="s">
         <v>182</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="4" t="s">
         <v>179</v>
       </c>
       <c r="O3">
@@ -3348,10 +3342,10 @@
       <c r="E4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -3372,7 +3366,7 @@
       <c r="M4" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>186</v>
       </c>
       <c r="O4">
@@ -3398,10 +3392,10 @@
       <c r="E5" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -3422,7 +3416,7 @@
       <c r="M5" t="s">
         <v>194</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="4" t="s">
         <v>186</v>
       </c>
       <c r="O5">
@@ -3449,14 +3443,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
@@ -3490,126 +3484,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3618,11 +3612,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"status,blok,jumlahlantai,semua"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"status,blok,jumlahlantai,semua"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
@@ -3699,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
         <v>171</v>
@@ -3707,10 +3701,10 @@
       <c r="E2" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>2</v>
       </c>
       <c r="H2" t="s">
@@ -3731,7 +3725,7 @@
       <c r="M2" t="s">
         <v>175</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="O2">
@@ -3757,10 +3751,10 @@
       <c r="E3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" t="s">
@@ -3781,7 +3775,7 @@
       <c r="M3" t="s">
         <v>182</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="4" t="s">
         <v>179</v>
       </c>
       <c r="O3">
@@ -3807,10 +3801,10 @@
       <c r="E4" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -3831,7 +3825,7 @@
       <c r="M4" t="s">
         <v>189</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>186</v>
       </c>
       <c r="O4">
@@ -3857,10 +3851,10 @@
       <c r="E5" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -3881,7 +3875,7 @@
       <c r="M5" t="s">
         <v>194</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="4" t="s">
         <v>186</v>
       </c>
       <c r="O5">
@@ -3905,14 +3899,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
@@ -3950,28 +3944,28 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="2:11">
@@ -3988,30 +3982,30 @@
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
         <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4020,30 +4014,30 @@
         <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4052,27 +4046,27 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
         <v>190</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
@@ -4084,22 +4078,22 @@
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
         <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4116,10 +4110,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -4129,148 +4123,164 @@
     <col min="4" max="4" width="12.2421875" customWidth="1"/>
     <col min="7" max="7" width="15.234375" customWidth="1"/>
     <col min="8" max="9" width="19.0078125" customWidth="1"/>
+    <col min="10" max="10" width="19.2734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="J1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="4" t="s">
+      <c r="J2" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" ht="14.75" spans="2:10">
+      <c r="B5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="G5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="5" ht="14.75" spans="2:9">
-      <c r="B5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>203</v>
+      <c r="J5" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"status,blok,jumlahlantai,semua"</formula1>
@@ -4294,287 +4304,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="30" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="27" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4595,7 +4605,7 @@
   <dimension ref="B1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -4605,173 +4615,180 @@
     <col min="4" max="4" width="14.0625" customWidth="1"/>
     <col min="6" max="6" width="19.2734375" customWidth="1"/>
     <col min="7" max="7" width="17.4375" customWidth="1"/>
+    <col min="8" max="8" width="17.578125" customWidth="1"/>
     <col min="10" max="10" width="20.828125" customWidth="1"/>
     <col min="11" max="11" width="14.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="1" t="s">
         <v>248</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
-        <v>221</v>
+      <c r="K2" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4">
+      <c r="F4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K5" t="s">
-        <v>221</v>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B6">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Dalam Proses,Perbaikan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"Nama,Semua,No Registrasi,Status"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4798,7 +4815,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4860,7 +4877,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4931,192 +4948,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>50120</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>50120</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>50120</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>50120</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>50120</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2">
         <v>50120</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5151,7 +5168,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -5186,7 +5203,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -5209,7 +5226,7 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -5226,7 +5243,7 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -5243,7 +5260,7 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -5255,11 +5272,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Pegawai,Tamu Dinas,Kunjungan Onsite,Kunjungan Online"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"nomor induk,kategori,nama lengkap,keperluan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Pegawai,Tamu Dinas,Kunjungan Onsite,Kunjungan Online"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"nomor induk,nama lengkap,kategori,keperluan"</formula1>
@@ -5294,248 +5311,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="19" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="19" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="16">
         <v>3460</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="16">
         <v>123</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5601,7 +5618,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" firstSheet="17" activeTab="19"/>
+    <workbookView windowWidth="30140" windowHeight="16760" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="DaftarLaluLintas_Input" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,19 @@
     <sheet name="RegisterH_PerpanjangPerasingan" sheetId="14" r:id="rId12"/>
     <sheet name="RegisterH_Edit" sheetId="15" r:id="rId13"/>
     <sheet name="Laporan6A_Tambah" sheetId="16" r:id="rId14"/>
-    <sheet name="tambahBlokdanKamar" sheetId="17" r:id="rId15"/>
-    <sheet name="VerifikasiManajemenBlok" sheetId="18" r:id="rId16"/>
-    <sheet name="editBlokdanKamar" sheetId="19" r:id="rId17"/>
-    <sheet name="TambahManajemenPenghuniBaru" sheetId="20" r:id="rId18"/>
-    <sheet name="VerifikasiPenghuniBaru" sheetId="21" r:id="rId19"/>
-    <sheet name="EditManajemenPenghuniBaru" sheetId="22" r:id="rId20"/>
+    <sheet name="VerifikasiManajemenBlok" sheetId="18" r:id="rId15"/>
+    <sheet name="TambahManajemenPenghuniBaru" sheetId="20" r:id="rId16"/>
+    <sheet name="VerifikasiPenghuniBaru" sheetId="21" r:id="rId17"/>
+    <sheet name="EditManajemenPenghuniBaru" sheetId="22" r:id="rId18"/>
+    <sheet name="tambahBlokdanKamar" sheetId="17" r:id="rId19"/>
+    <sheet name="editBlokdanKamar" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="260">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -500,15 +500,189 @@
     <t>Galih</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>namaBlok</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>tipeblok</t>
+  </si>
+  <si>
+    <t>jumlahlantai</t>
+  </si>
+  <si>
+    <t>Ubahstatus</t>
+  </si>
+  <si>
+    <t>Blok B</t>
+  </si>
+  <si>
+    <t>Dalam Proses</t>
+  </si>
+  <si>
+    <t>Mapenaling</t>
+  </si>
+  <si>
+    <t>blok cc</t>
+  </si>
+  <si>
+    <t>Diizinkan</t>
+  </si>
+  <si>
+    <t>Di izinkan karena memenuhi syarat</t>
+  </si>
+  <si>
+    <t>blok</t>
+  </si>
+  <si>
+    <t>Blok C</t>
+  </si>
+  <si>
+    <t>Perbaikan</t>
+  </si>
+  <si>
+    <t>Umum</t>
+  </si>
+  <si>
+    <t>MAPENALING</t>
+  </si>
+  <si>
+    <t>Tutup Sunyi</t>
+  </si>
+  <si>
+    <t>nama blok</t>
+  </si>
+  <si>
+    <t>NoRegis</t>
+  </si>
+  <si>
+    <t>Semua</t>
+  </si>
+  <si>
+    <t>Kejahatan</t>
+  </si>
+  <si>
+    <t>blokform</t>
+  </si>
+  <si>
+    <t>Lantai</t>
+  </si>
+  <si>
+    <t>Kamar</t>
+  </si>
+  <si>
+    <t>TanggalPenempatan</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>kejahatan</t>
+  </si>
+  <si>
+    <t>Blok mapenaling E</t>
+  </si>
+  <si>
+    <t>lantai 1</t>
+  </si>
+  <si>
+    <t>kamar 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapenaling </t>
+  </si>
+  <si>
+    <t>No Registrasi</t>
+  </si>
+  <si>
+    <t>Thamus SAMUEL BIN Argus</t>
+  </si>
+  <si>
+    <t>Blok mapenaling gal</t>
+  </si>
+  <si>
+    <t>kamar 2</t>
+  </si>
+  <si>
+    <t>17/12/2023'</t>
+  </si>
+  <si>
+    <t>Argus SAMUEL BIN Alucard</t>
+  </si>
+  <si>
+    <t>kamar 3</t>
+  </si>
+  <si>
+    <t>17/12/2024'</t>
+  </si>
+  <si>
+    <t>kamar 4</t>
+  </si>
+  <si>
+    <t>17/12/2025'</t>
+  </si>
+  <si>
+    <t>namaWbp</t>
+  </si>
+  <si>
+    <t>noRegis</t>
+  </si>
+  <si>
+    <t>kamar</t>
+  </si>
+  <si>
+    <t>statusVerifikasi</t>
+  </si>
+  <si>
+    <t>BlokMapenaling</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Blok Mapenaling E</t>
+  </si>
+  <si>
+    <t>test keterangan</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>Blok</t>
+  </si>
+  <si>
+    <t>NoRegisEdit</t>
+  </si>
+  <si>
+    <t>SemuaEdit</t>
+  </si>
+  <si>
+    <t>blokformEdit</t>
+  </si>
+  <si>
+    <t>LantaiEdit</t>
+  </si>
+  <si>
+    <t>KamarEdit</t>
+  </si>
+  <si>
+    <t>TanggalPenempatanEdit</t>
+  </si>
+  <si>
+    <t>KeteranganEdit</t>
+  </si>
+  <si>
     <t>Nomor</t>
   </si>
   <si>
     <t>namablok</t>
   </si>
   <si>
-    <t>tipeblok</t>
-  </si>
-  <si>
     <t>jeniskelamin</t>
   </si>
   <si>
@@ -548,9 +722,6 @@
     <t>Blok mapen new</t>
   </si>
   <si>
-    <t>Mapenaling</t>
-  </si>
-  <si>
     <t>Laki-laki</t>
   </si>
   <si>
@@ -566,12 +737,6 @@
     <t>Baik</t>
   </si>
   <si>
-    <t>Blok C</t>
-  </si>
-  <si>
-    <t>Tutup Sunyi</t>
-  </si>
-  <si>
     <t>Kriminal</t>
   </si>
   <si>
@@ -605,9 +770,6 @@
     <t>D-02</t>
   </si>
   <si>
-    <t>Blok mapenaling E</t>
-  </si>
-  <si>
     <t>Perempuan</t>
   </si>
   <si>
@@ -620,169 +782,37 @@
     <t>E-02</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>namaBlok</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>jumlahlantai</t>
-  </si>
-  <si>
-    <t>Ubahstatus</t>
-  </si>
-  <si>
-    <t>Blok B</t>
-  </si>
-  <si>
-    <t>Dalam Proses</t>
-  </si>
-  <si>
-    <t>blok cc</t>
-  </si>
-  <si>
-    <t>Diizinkan</t>
-  </si>
-  <si>
-    <t>Di izinkan karena memenuhi syarat</t>
-  </si>
-  <si>
-    <t>blok</t>
-  </si>
-  <si>
-    <t>Perbaikan</t>
-  </si>
-  <si>
-    <t>Umum</t>
-  </si>
-  <si>
-    <t>MAPENALING</t>
-  </si>
-  <si>
-    <t>nama blok</t>
-  </si>
-  <si>
-    <t>Blok BE</t>
-  </si>
-  <si>
-    <t>NoRegis</t>
-  </si>
-  <si>
-    <t>Semua</t>
-  </si>
-  <si>
-    <t>Kejahatan</t>
-  </si>
-  <si>
-    <t>blokform</t>
-  </si>
-  <si>
-    <t>Lantai</t>
-  </si>
-  <si>
-    <t>Kamar</t>
-  </si>
-  <si>
-    <t>TanggalPenempatan</t>
-  </si>
-  <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
-    <t>kejahatan</t>
-  </si>
-  <si>
-    <t>lantai 1</t>
-  </si>
-  <si>
-    <t>kamar 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapenaling </t>
-  </si>
-  <si>
-    <t>No Registrasi</t>
-  </si>
-  <si>
-    <t>Thamus SAMUEL BIN Argus</t>
-  </si>
-  <si>
-    <t>Blok mapenaling gal</t>
-  </si>
-  <si>
-    <t>kamar 2</t>
-  </si>
-  <si>
-    <t>17/12/2023'</t>
-  </si>
-  <si>
-    <t>Argus SAMUEL BIN Alucard</t>
-  </si>
-  <si>
-    <t>kamar 3</t>
-  </si>
-  <si>
-    <t>17/12/2024'</t>
-  </si>
-  <si>
-    <t>kamar 4</t>
-  </si>
-  <si>
-    <t>17/12/2025'</t>
-  </si>
-  <si>
-    <t>namaWbp</t>
-  </si>
-  <si>
-    <t>noRegis</t>
-  </si>
-  <si>
-    <t>kamar</t>
-  </si>
-  <si>
-    <t>statusVerifikasi</t>
-  </si>
-  <si>
-    <t>BlokMapenaling</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Blok Mapenaling E</t>
-  </si>
-  <si>
-    <t>test keterangan</t>
-  </si>
-  <si>
-    <t>Naga</t>
-  </si>
-  <si>
-    <t>Blok</t>
-  </si>
-  <si>
-    <t>NoRegisEdit</t>
-  </si>
-  <si>
-    <t>SemuaEdit</t>
-  </si>
-  <si>
-    <t>blokformEdit</t>
-  </si>
-  <si>
-    <t>LantaiEdit</t>
-  </si>
-  <si>
-    <t>KamarEdit</t>
-  </si>
-  <si>
-    <t>TanggalPenempatanEdit</t>
-  </si>
-  <si>
-    <t>KeteranganEdit</t>
+    <t>EditNamaBlok</t>
+  </si>
+  <si>
+    <t>EditTipeBlok</t>
+  </si>
+  <si>
+    <t>Editjeniskelamin</t>
+  </si>
+  <si>
+    <t>EditjenisKejahatan</t>
+  </si>
+  <si>
+    <t>EditjumlahLantai</t>
+  </si>
+  <si>
+    <t>EditformatPenomoranKamar</t>
+  </si>
+  <si>
+    <t>EditkelUsia</t>
+  </si>
+  <si>
+    <t>EditjumlahKamarPerlantai</t>
+  </si>
+  <si>
+    <t>EditnoKamarAwal</t>
+  </si>
+  <si>
+    <t>EditnoKamarAkhir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edt</t>
   </si>
 </sst>
 </file>
@@ -790,10 +820,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -842,8 +872,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,9 +910,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,14 +947,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -918,30 +971,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,14 +992,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -970,14 +999,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,6 +1017,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,13 +1082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1112,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,37 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,43 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,7 +1184,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,13 +1238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,12 +1256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1216,16 +1270,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1237,7 +1291,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1252,9 +1306,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1267,9 +1319,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1291,6 +1341,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1309,13 +1374,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1327,10 +1392,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1342,7 +1407,48 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1361,6 +1467,51 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1405,17 +1556,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,6 +1585,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,179 +1633,165 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1650,58 +1801,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2058,257 +2243,257 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="59" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="58" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="35">
+      <c r="A2" s="67">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="44" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2388,7 +2573,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="69"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2396,7 +2581,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="69"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2404,7 +2589,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="69"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2412,7 +2597,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="37"/>
+      <c r="D23" s="69"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2420,7 +2605,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="69"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2428,7 +2613,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="69"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2436,7 +2621,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="69"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2444,7 +2629,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="69"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2452,7 +2637,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="69"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3155,10 +3340,742 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="13.015625" customWidth="1"/>
+    <col min="3" max="3" width="26.8203125" customWidth="1"/>
+    <col min="4" max="4" width="17.578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.6015625" customWidth="1"/>
+    <col min="9" max="9" width="28.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" ht="14.75" spans="2:9">
+      <c r="B5" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"status,blok,jumlahlantai,semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
+      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="14.4453125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="K5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7">
+      <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="13.015625" customWidth="1"/>
+    <col min="3" max="3" width="26.8203125" customWidth="1"/>
+    <col min="4" max="4" width="12.2421875" customWidth="1"/>
+    <col min="7" max="7" width="15.234375" customWidth="1"/>
+    <col min="8" max="9" width="19.0078125" customWidth="1"/>
+    <col min="10" max="10" width="19.2734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" ht="14.75" spans="2:10">
+      <c r="B5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
+      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"status,blok,jumlahlantai,semua"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="19.7890625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.0625" customWidth="1"/>
+    <col min="6" max="6" width="19.2734375" customWidth="1"/>
+    <col min="7" max="7" width="17.4375" customWidth="1"/>
+    <col min="8" max="8" width="17.578125" customWidth="1"/>
+    <col min="10" max="10" width="20.828125" customWidth="1"/>
+    <col min="11" max="11" width="14.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+      <formula1>"Dalam Proses,Perbaikan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"Nama,Semua,No Registrasi,Status"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -3180,252 +4097,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="G1" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="L1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="E2" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="35">
+        <v>2</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="33">
+        <v>10</v>
+      </c>
+      <c r="K2" s="33">
+        <v>1</v>
+      </c>
+      <c r="L2" s="33">
+        <v>10</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="33">
+        <v>30</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q2" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="Q1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
+      <c r="D3" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="35">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="H3" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="33">
+        <v>15</v>
+      </c>
+      <c r="K3" s="33">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
+      <c r="L3" s="33">
+        <v>15</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="33">
+        <v>33</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="35">
+        <v>3</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="33">
+        <v>14</v>
+      </c>
+      <c r="K4" s="33">
+        <v>3</v>
+      </c>
+      <c r="L4" s="33">
+        <v>14</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="O4" s="33">
+        <v>43</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="35">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="O3">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4">
+      <c r="H5" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="33">
+        <v>12</v>
+      </c>
+      <c r="K5" s="33">
+        <v>4</v>
+      </c>
+      <c r="L5" s="33">
+        <v>12</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="O5" s="33">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O5">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5">
+      <c r="P5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q5" s="33">
         <v>20</v>
       </c>
     </row>
@@ -3437,17 +4359,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
       <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
@@ -3455,835 +4368,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
-      <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
-  <cols>
-    <col min="2" max="2" width="13.015625" customWidth="1"/>
-    <col min="3" max="3" width="26.8203125" customWidth="1"/>
-    <col min="4" max="4" width="17.578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.6015625" customWidth="1"/>
-    <col min="9" max="9" width="28.3828125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" ht="14.75" spans="2:9">
-      <c r="B5" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"status,blok,jumlahlantai,semua"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
-      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
-      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="6">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="O3">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="6">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J4">
-        <v>14</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>194</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="O5">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
-      <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
-      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
-  <cols>
-    <col min="2" max="2" width="14.4453125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11">
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I5" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7">
-      <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
-  <cols>
-    <col min="2" max="2" width="13.015625" customWidth="1"/>
-    <col min="3" max="3" width="26.8203125" customWidth="1"/>
-    <col min="4" max="4" width="12.2421875" customWidth="1"/>
-    <col min="7" max="7" width="15.234375" customWidth="1"/>
-    <col min="8" max="9" width="19.0078125" customWidth="1"/>
-    <col min="10" max="10" width="19.2734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" ht="14.75" spans="2:10">
-      <c r="B5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
-      <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"status,blok,jumlahlantai,semua"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4304,287 +4399,287 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="59" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="58" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="31">
+      <c r="A2" s="63">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4602,194 +4697,359 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K5"/>
+  <dimension ref="B1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="19.7890625" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.0625" customWidth="1"/>
-    <col min="6" max="6" width="19.2734375" customWidth="1"/>
-    <col min="7" max="7" width="17.4375" customWidth="1"/>
-    <col min="8" max="8" width="17.578125" customWidth="1"/>
-    <col min="10" max="10" width="20.828125" customWidth="1"/>
-    <col min="11" max="11" width="14.84375" customWidth="1"/>
+    <col min="2" max="2" width="12.7578125" customWidth="1"/>
+    <col min="4" max="4" width="15.6171875" customWidth="1"/>
+    <col min="5" max="5" width="12.2421875" customWidth="1"/>
+    <col min="6" max="6" width="14.9765625" customWidth="1"/>
+    <col min="7" max="7" width="19.65625" customWidth="1"/>
+    <col min="8" max="8" width="20.0546875" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.796875" customWidth="1"/>
+    <col min="11" max="11" width="20.96875" customWidth="1"/>
+    <col min="12" max="12" width="17.1875" customWidth="1"/>
+    <col min="13" max="13" width="23.5625" customWidth="1"/>
+    <col min="14" max="14" width="13.9296875" customWidth="1"/>
+    <col min="15" max="15" width="27.734375" customWidth="1"/>
+    <col min="16" max="16" width="24.34375" customWidth="1"/>
+    <col min="17" max="17" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" ht="14.75" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="21">
+        <v>2</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="O2" s="21">
+        <v>10</v>
+      </c>
+      <c r="P2" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="22">
+        <v>1</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="O3" s="22">
+        <v>15</v>
+      </c>
+      <c r="P3" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="L4" s="22">
+        <v>3</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="O4" s="22">
+        <v>14</v>
+      </c>
+      <c r="P4" s="27">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K5" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L5" s="22">
+        <v>2</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="N5" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>222</v>
+      <c r="O5" s="22">
+        <v>12</v>
+      </c>
+      <c r="P5" s="27">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="14.75" spans="2:17">
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="23">
+        <v>2</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O6" s="23">
+        <v>12</v>
+      </c>
+      <c r="P6" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
-      <formula1>"Dalam Proses,Perbaikan"</formula1>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
+      <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"Nama,Semua,No Registrasi,Status"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Nama,Semua,No Registrasi,Kejahatan"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
+      <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
+      <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
+      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
+      <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4815,7 +5075,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4877,7 +5137,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4948,192 +5208,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="57" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9">
+      <c r="A2" s="41">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>50120</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>50120</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>50120</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="8">
         <v>50120</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="8">
         <v>50120</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8">
         <v>50120</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="56" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5168,7 +5428,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -5203,7 +5463,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="51">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -5226,7 +5486,7 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>50120</v>
       </c>
       <c r="E3" t="s">
@@ -5243,7 +5503,7 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>50120</v>
       </c>
       <c r="E4" t="s">
@@ -5260,7 +5520,7 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="8">
         <v>50120</v>
       </c>
       <c r="E5" t="s">
@@ -5311,248 +5571,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="36" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15">
+      <c r="A2" s="46">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="16" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="16" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="47">
         <v>3460</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="47">
         <v>123</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="16" ht="14.75"/>
     <row r="17" ht="14.75" spans="1:2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="48"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5618,7 +5878,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="45" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">

--- a/Filexel/Keamanan.xlsx
+++ b/Filexel/Keamanan.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="260">
   <si>
     <t>READ BARIS</t>
   </si>
@@ -719,7 +719,7 @@
     <t>lamaHuni</t>
   </si>
   <si>
-    <t>Blok mapen new</t>
+    <t>Blok Naling B</t>
   </si>
   <si>
     <t>Laki-laki</t>
@@ -820,10 +820,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -863,39 +863,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,8 +878,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,20 +910,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -949,6 +925,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,13 +955,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -985,7 +962,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,16 +1006,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,13 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,25 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1106,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,13 +1142,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,31 +1214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,67 +1226,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,12 +1250,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1472,15 +1466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1490,10 +1480,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1505,13 +1493,11 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1520,6 +1506,51 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1530,10 +1561,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1543,33 +1574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,6 +1600,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,17 +1654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,144 +1666,129 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1779,29 +1797,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1816,77 +1834,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2243,56 +2257,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0078125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="27.46875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="30.203125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="16.859375" style="59" customWidth="1"/>
-    <col min="5" max="5" width="21.4296875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="23.6875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="14.0078125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="27.46875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="30.203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.859375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="21.4296875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="23.6875" style="54" customWidth="1"/>
     <col min="7" max="7" width="14.96875" customWidth="1"/>
     <col min="8" max="8" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A2" s="67">
+      <c r="A2" s="63">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -2301,22 +2315,22 @@
       <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A3" s="41"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2325,22 +2339,22 @@
       <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -2349,22 +2363,22 @@
       <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -2373,22 +2387,22 @@
       <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -2397,22 +2411,22 @@
       <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="41"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -2421,22 +2435,22 @@
       <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="41"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -2445,22 +2459,22 @@
       <c r="G8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="41"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -2469,22 +2483,22 @@
       <c r="G9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.75" spans="1:8">
-      <c r="A10" s="42"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="64" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -2493,7 +2507,7 @@
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="40" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2573,7 +2587,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" s="69"/>
+      <c r="D20" s="65"/>
       <c r="E20"/>
       <c r="F20"/>
     </row>
@@ -2581,7 +2595,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="65"/>
       <c r="E21"/>
       <c r="F21"/>
     </row>
@@ -2589,7 +2603,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" s="69"/>
+      <c r="D22" s="65"/>
       <c r="E22"/>
       <c r="F22"/>
     </row>
@@ -2597,7 +2611,7 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" s="69"/>
+      <c r="D23" s="65"/>
       <c r="E23"/>
       <c r="F23"/>
     </row>
@@ -2605,7 +2619,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" s="69"/>
+      <c r="D24" s="65"/>
       <c r="E24"/>
       <c r="F24"/>
     </row>
@@ -2613,7 +2627,7 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" s="69"/>
+      <c r="D25" s="65"/>
       <c r="E25"/>
       <c r="F25"/>
     </row>
@@ -2621,7 +2635,7 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" s="69"/>
+      <c r="D26" s="65"/>
       <c r="E26"/>
       <c r="F26"/>
     </row>
@@ -2629,7 +2643,7 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" s="69"/>
+      <c r="D27" s="65"/>
       <c r="E27"/>
       <c r="F27"/>
     </row>
@@ -2637,7 +2651,7 @@
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" s="69"/>
+      <c r="D28" s="65"/>
       <c r="E28"/>
       <c r="F28"/>
     </row>
@@ -3357,33 +3371,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3404,12 +3418,12 @@
       <c r="H2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -3428,12 +3442,12 @@
       <c r="H3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3452,12 +3466,12 @@
       <c r="H4" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" ht="14.75" spans="2:9">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="38" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3476,7 +3490,7 @@
       <c r="H5" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="40" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3485,11 +3499,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"status,blok,jumlahlantai,semua"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"status,blok,jumlahlantai,semua"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 F6 D2:D4 H2:H5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
@@ -3573,7 +3587,7 @@
       <c r="I2" t="s">
         <v>185</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
@@ -3605,7 +3619,7 @@
       <c r="I3" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="33" t="s">
         <v>191</v>
       </c>
       <c r="K3" t="s">
@@ -3637,7 +3651,7 @@
       <c r="I4" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="33" t="s">
         <v>194</v>
       </c>
       <c r="K4" t="s">
@@ -3669,7 +3683,7 @@
       <c r="I5" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="33" t="s">
         <v>196</v>
       </c>
       <c r="K5" t="s">
@@ -3707,31 +3721,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3853,11 +3867,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I5">
       <formula1>"Diizinkan,Perbaikan,Ditolak,Dalam Proses"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"Diizinkan,Dalam Proses,Perbaikan,Ditolak,Semua"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>"semua,No Registrasi,Nama,Perkara,Blok,Kamar,Tgl Masuk,Tgl Ekspirasi,Status"</formula1>
@@ -3893,34 +3907,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="31" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3949,7 +3963,7 @@
       <c r="I2" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -3981,7 +3995,7 @@
       <c r="I3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -4013,7 +4027,7 @@
       <c r="I4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -4045,7 +4059,7 @@
       <c r="I5" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="33" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -4074,8 +4088,8 @@
   <sheetPr/>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -4097,267 +4111,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="33">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="32">
         <v>2</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="8">
         <v>10</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="8">
         <v>10</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="8">
         <v>30</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="33">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="32">
         <v>1</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="8">
         <v>15</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="8">
         <v>2</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="8">
         <v>15</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="8">
         <v>33</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="33">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="32">
         <v>3</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="8">
         <v>14</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="8">
         <v>3</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="8">
         <v>14</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="8">
         <v>43</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="8">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="33">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="32">
         <v>2</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="8">
         <v>12</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="8">
         <v>4</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="8">
         <v>12</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="8">
         <v>23</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="8">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P5">
       <formula1>"Baik,Rusak"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N5">
-      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H12">
       <formula1>"Angka 8 (mulai kiri atas),Angka 8 (mulai kiri bawah),Angka 8 (mulai kanani atas),Angka 8 (mulai kanan bawah),Belakang Ke Depan (1 arah),Belakang Ke Depan (2 arah),Depan Ke Belakang (1 arah),Depan Ke Belakang (2 arah),Kanan Kiri (1 arah)"</formula1>
@@ -4365,17 +4382,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
       <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
       <formula1>"Umum,Mapenaling,Tutup Sunyi,Isolasi"</formula1>
@@ -4399,62 +4413,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.1484375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="32.1484375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="29.859375" style="58" customWidth="1"/>
-    <col min="4" max="4" width="27.1484375" style="59" customWidth="1"/>
-    <col min="5" max="5" width="32.4296875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="42.0078125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="14.1484375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="32.1484375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="29.859375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="27.1484375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="32.4296875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="42.0078125" style="54" customWidth="1"/>
     <col min="7" max="7" width="23.703125" customWidth="1"/>
     <col min="8" max="8" width="24.8671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A2" s="63">
+      <c r="A2" s="59">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -4472,16 +4486,16 @@
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -4499,16 +4513,16 @@
       <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -4526,16 +4540,16 @@
       <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -4553,16 +4567,16 @@
       <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -4580,16 +4594,16 @@
       <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -4607,16 +4621,16 @@
       <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -4634,16 +4648,16 @@
       <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -4661,16 +4675,16 @@
       <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -4697,10 +4711,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Q6"/>
+  <dimension ref="B1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -4720,9 +4734,14 @@
     <col min="15" max="15" width="27.734375" customWidth="1"/>
     <col min="16" max="16" width="24.34375" customWidth="1"/>
     <col min="17" max="17" width="21.875" customWidth="1"/>
+    <col min="18" max="18" width="14.578125" customWidth="1"/>
+    <col min="19" max="19" width="23.046875" customWidth="1"/>
+    <col min="20" max="20" width="17.0625" customWidth="1"/>
+    <col min="21" max="21" width="16.2734375" customWidth="1"/>
+    <col min="22" max="22" width="14.9765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="2:17">
+    <row r="1" ht="14.75" spans="2:22">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -4744,35 +4763,50 @@
       <c r="H1" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="18" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="2:17">
+      <c r="R1" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22">
       <c r="B2" s="3" t="s">
         <v>157</v>
       </c>
@@ -4791,38 +4825,53 @@
       <c r="G2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="5">
         <v>2</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="5">
         <v>10</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="5">
         <v>1</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:17">
+      <c r="R2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="5">
+        <v>30</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V2" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
       <c r="B3" s="6" t="s">
         <v>167</v>
       </c>
@@ -4838,41 +4887,56 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="7">
         <v>15</v>
       </c>
-      <c r="P3" s="27">
+      <c r="P3" s="7">
         <v>2</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="24">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:17">
+      <c r="R3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="T3" s="7">
+        <v>33</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="V3" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4" s="6" t="s">
         <v>158</v>
       </c>
@@ -4888,41 +4952,56 @@
       <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="7">
         <v>3</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="7">
         <v>14</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="7">
         <v>3</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="24">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="R4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="T4" s="7">
+        <v>43</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="V4" s="30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" s="6" t="s">
         <v>159</v>
       </c>
@@ -4938,41 +5017,56 @@
       <c r="F5" s="8">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="7">
         <v>12</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="7">
         <v>4</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="24">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="14.75" spans="2:17">
+      <c r="R5" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="T5" s="7">
+        <v>23</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="V5" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="14.75" spans="2:22">
       <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
@@ -4988,65 +5082,86 @@
       <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="17">
         <v>2</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="17">
         <v>12</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="17">
         <v>5</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="26">
         <v>15</v>
       </c>
+      <c r="R6" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="T6" s="17">
+        <v>23</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="V6" s="15">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6 U2:U5">
+      <formula1>"Baik,Rusak"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6 S2:S5">
+      <formula1>"Teroris,Korupsi,Narkotik,Kriminal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
+      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6 M2:M5">
       <formula1>"Angka 8 mulai kiri atas,Angka 8 mulai kiri bawah,Angka 8 mulai kanani atas,Angka 8 mulai kanan bawah,Belakang Ke Depan 1 arah,Belakang Ke Depan 2 arah,Depan Ke Belakang 1 arah,Depan Ke Belakang 2 arah,Kanan Kiri 1 arah"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L2:L5">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
+      <formula1>"Laki-laki,Perempuan"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E2:E5">
       <formula1>"Mapenaling,Umum,Tutup Sunyi,Isolasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
-      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
+      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I6">
       <formula1>"Umum,Tutup Sunyi,Mapenaling,Isolasi"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6 N2:N5">
-      <formula1>"Anak-anak,Dewasa,Lansia"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J2:J5">
-      <formula1>"Laki-laki,Perempuan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D2:D5">
-      <formula1>"Diizinkan,Perbaikan,Dalam Proses"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K2:K5">
+      <formula1>"Korupsi,Teroris,Kriminal,Kriminal Teroris Korupsi,Korupsi Teroris,Teroris Kriminal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B2:B5">
       <formula1>"status,blok,jumlahlantai,semua,tipeblok"</formula1>
@@ -5075,7 +5190,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5137,7 +5252,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5208,33 +5323,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="41">
+      <c r="A2" s="37">
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5255,12 +5370,12 @@
       <c r="G2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="41"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="8" t="s">
         <v>58</v>
       </c>
@@ -5279,12 +5394,12 @@
       <c r="G3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="41"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
@@ -5303,12 +5418,12 @@
       <c r="G4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="41"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
@@ -5327,12 +5442,12 @@
       <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="41"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
@@ -5351,12 +5466,12 @@
       <c r="G6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" ht="14.75" spans="1:8">
-      <c r="A7" s="42"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="8">
@@ -5371,21 +5486,21 @@
       <c r="G7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" spans="1:1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="50" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="52" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5428,7 +5543,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -5463,7 +5578,7 @@
       <c r="C2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="47">
         <v>3434</v>
       </c>
       <c r="E2" t="s">
@@ -5571,52 +5686,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="46">
+      <c r="A2" s="42">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="43" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="8"/>
@@ -5627,14 +5742,14 @@
       <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="43" t="s">
         <v>91</v>
       </c>
       <c r="I3" s="8"/>
@@ -5645,20 +5760,20 @@
       <c r="B4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="43">
         <v>3460</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="43" t="s">
         <v>94</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="43" t="s">
         <v>91</v>
       </c>
       <c r="I4" s="8"/>
@@ -5669,22 +5784,22 @@
       <c r="B5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="43">
         <v>123</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="43" t="s">
         <v>97</v>
       </c>
       <c r="I5" s="8"/>
@@ -5806,13 +5921,13 @@
       <c r="A17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="44"/>
     </row>
     <row r="18" ht="14.75" spans="1:2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="45"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5878,7 +5993,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>106</v>
       </c>
       <c r="G2" t="s">
